--- a/data/raw/ECOLAND_20250708_cycle3.xlsx
+++ b/data/raw/ECOLAND_20250708_cycle3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SID\Desktop\July 08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnf\Desktop\D3QN\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A58420-2358-4254-831A-F470D19A4C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6A7C72-D9CA-423D-9838-1085663C4C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="17085" windowHeight="15180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Annotations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -567,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +634,7 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F2">
         <v>1.5</v>
@@ -648,11 +653,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J25" si="2">IF(E2=0,0,G2*3600/E2)</f>
-        <v>2376</v>
+        <v>396</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K25" si="3">IF(E2=0,0,IF(D2="",0,D2*3600/E2))</f>
-        <v>1584</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -669,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(C3,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -689,11 +694,11 @@
       </c>
       <c r="J3">
         <f t="shared" si="2"/>
-        <v>1641.6</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="K3">
         <f t="shared" si="3"/>
-        <v>1368</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -710,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(C4,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -730,11 +735,11 @@
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>2880</v>
+        <v>480</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -751,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(C5,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -792,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(C6,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -812,11 +817,11 @@
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -833,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(C7,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -853,11 +858,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -874,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="F8">
         <f>VLOOKUP(C8,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -894,11 +899,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>1320</v>
+        <v>198</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>880</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -915,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="F9">
         <f>VLOOKUP(C9,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -935,11 +940,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>575.99999999999989</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -956,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(C10,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -976,11 +981,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>360</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -997,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="F11">
         <f>VLOOKUP(C11,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1038,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="F12">
         <f>VLOOKUP(C12,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1058,11 +1063,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1079,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="F13">
         <f>VLOOKUP(C13,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1099,11 +1104,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1120,7 +1125,7 @@
         <v>62</v>
       </c>
       <c r="E14">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="F14">
         <f>VLOOKUP(C14,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1140,11 +1145,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>3043.6363636363635</v>
+        <v>1116</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
-        <v>2029.090909090909</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1161,7 +1166,7 @@
         <v>36</v>
       </c>
       <c r="E15">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="F15">
         <f>VLOOKUP(C15,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1181,11 +1186,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>1413.8181818181815</v>
+        <v>518.39999999999986</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>1178.1818181818182</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1202,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="E16">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="F16">
         <f>VLOOKUP(C16,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1222,11 +1227,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>3927.2727272727275</v>
+        <v>1440</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>392.72727272727275</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1243,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="F17">
         <f>VLOOKUP(C17,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1263,11 +1268,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>1963.6363636363637</v>
+        <v>720</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>65.454545454545453</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1284,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="F18">
         <f>VLOOKUP(C18,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1304,11 +1309,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>98.181818181818187</v>
+        <v>36</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>98.181818181818187</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1325,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(C19,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1366,7 +1371,7 @@
         <v>79</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F20">
         <f>VLOOKUP(C20,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1386,11 +1391,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>8532</v>
+        <v>1422</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
-        <v>5688</v>
+        <v>948</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1407,7 +1412,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F21">
         <f>VLOOKUP(C21,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1427,11 +1432,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>2419.1999999999998</v>
+        <v>403.2</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
-        <v>2016</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1448,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F22">
         <f>VLOOKUP(C22,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1468,11 +1473,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>1200</v>
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
-        <v>720</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1489,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F23">
         <f>VLOOKUP(C23,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1509,11 +1514,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>6480</v>
+        <v>1080</v>
       </c>
       <c r="K23">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1530,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F24">
         <f>VLOOKUP(C24,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1550,11 +1555,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1571,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F25">
         <f>VLOOKUP(C25,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1612,7 +1617,7 @@
         <v>19</v>
       </c>
       <c r="E26">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F26">
         <f>VLOOKUP(C26,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1632,11 +1637,11 @@
       </c>
       <c r="J26">
         <f t="shared" ref="J26:J31" si="6">IF(E26=0,0,G26*3600/E26)</f>
-        <v>1282.5</v>
+        <v>342</v>
       </c>
       <c r="K26">
         <f t="shared" ref="K26:K31" si="7">IF(E26=0,0,IF(D26="",0,D26*3600/E26))</f>
-        <v>855</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1653,7 +1658,7 @@
         <v>13</v>
       </c>
       <c r="E27">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F27">
         <f>VLOOKUP(C27,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1673,11 +1678,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="6"/>
-        <v>702</v>
+        <v>187.2</v>
       </c>
       <c r="K27">
         <f t="shared" si="7"/>
-        <v>585</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1694,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F28">
         <f>VLOOKUP(C28,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1714,11 +1719,11 @@
       </c>
       <c r="J28">
         <f t="shared" si="6"/>
-        <v>2700</v>
+        <v>720</v>
       </c>
       <c r="K28">
         <f t="shared" si="7"/>
-        <v>270</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1735,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F29">
         <f>VLOOKUP(C29,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1776,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F30">
         <f>VLOOKUP(C30,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1796,11 +1801,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="K30">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1817,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F31">
         <f>VLOOKUP(C31,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1837,11 +1842,11 @@
       </c>
       <c r="J31">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="K31">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +1961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/data/raw/ECOLAND_20250708_cycle3.xlsx
+++ b/data/raw/ECOLAND_20250708_cycle3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnf\Desktop\D3QN\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6A7C72-D9CA-423D-9838-1085663C4C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962567C4-2234-477C-A628-9871302BF3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,55 +234,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1052476</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>17950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>389336</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>178618</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD7FF6C-2844-4704-83DB-F2EC9AF41DD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="467932" y="6888994"/>
-          <a:ext cx="3970668" cy="2801579"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
@@ -1857,7 +1808,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
